--- a/2023/progress.xlsx
+++ b/2023/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Python\advent_of_code\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C190BA91-DEF2-46B5-960D-36832116F018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C934ACD6-D93B-4A86-A332-29D6A0FD8606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,6 +186,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +474,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,67 +571,67 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">

--- a/2023/progress.xlsx
+++ b/2023/progress.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Python\advent_of_code\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C934ACD6-D93B-4A86-A332-29D6A0FD8606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43312ABD-035D-47C8-BDBC-643556E75CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -474,7 +485,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
